--- a/testFile/case/userCase01.xlsx
+++ b/testFile/case/userCase01.xlsx
@@ -4,22 +4,216 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="term_topic" sheetId="3" r:id="rId2"/>
-    <sheet name="user_baseInfo" sheetId="4" r:id="rId3"/>
-    <sheet name="msg_unReadCount" sheetId="5" r:id="rId4"/>
-    <sheet name="homepage_console_tips" sheetId="6" r:id="rId5"/>
-    <sheet name="login1" sheetId="7" r:id="rId6"/>
+    <sheet name="login1" sheetId="7" r:id="rId2"/>
+    <sheet name="one" sheetId="8" r:id="rId3"/>
+    <sheet name="orderList" sheetId="9" r:id="rId4"/>
+    <sheet name="level_logs" sheetId="10" r:id="rId5"/>
+    <sheet name="level_save" sheetId="11" r:id="rId6"/>
+    <sheet name="groups" sheetId="12" r:id="rId7"/>
+    <sheet name="groups_history" sheetId="13" r:id="rId8"/>
+    <sheet name="group_copy" sheetId="14" r:id="rId9"/>
+    <sheet name="score_delete" sheetId="18" r:id="rId10"/>
+    <sheet name="distribution_save" sheetId="15" r:id="rId11"/>
+    <sheet name="itemLabel_listLabel" sheetId="16" r:id="rId12"/>
+    <sheet name="itemLabelAllot_save" sheetId="17" r:id="rId13"/>
+    <sheet name="config_select" sheetId="19" r:id="rId14"/>
+    <sheet name="auth_groups" sheetId="20" r:id="rId15"/>
+    <sheet name="userm_list" sheetId="21" r:id="rId16"/>
+    <sheet name="auth_authDetail" sheetId="22" r:id="rId17"/>
+    <sheet name="auth_modifyAuthDetail" sheetId="23" r:id="rId18"/>
+    <sheet name="auth_listPermissionLo" sheetId="24" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>颐圣智能</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>颐圣智能:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+pageNum:第几页
+pageSize:每页几条数据
+name:筛选的用户姓名
+orderBy:排序方式
+desc:正序倒序</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>颐圣智能</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>颐圣智能:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+groupId:权限组id
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>颐圣智能</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>颐圣智能:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+groupID：规则组名称
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>颐圣智能</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>颐圣智能:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+groupID：规则组名称
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>颐圣智能:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+groupID：规则组名称
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>颐圣智能:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+groupID：规则组名称
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="143">
   <si>
     <t>case_name</t>
   </si>
@@ -57,34 +251,536 @@
     <t>username=tianlei@123.com&amp;password=</t>
   </si>
   <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>/api/lg/login</t>
+  </si>
+  <si>
+    <t>username=test01&amp;password=qwe123</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>username=test01&amp;password=qwe124</t>
+  </si>
+  <si>
+    <t>username=test01&amp;password=</t>
+  </si>
+  <si>
     <t>checkStatus0</t>
   </si>
   <si>
-    <t>/api/term/topic</t>
-  </si>
-  <si>
-    <t>{}</t>
+    <t>/api/lg/one</t>
   </si>
   <si>
     <t>checkStatus1</t>
   </si>
   <si>
-    <t>/api/user/baseInfo</t>
-  </si>
-  <si>
-    <t>/api/msg/unReadCount</t>
-  </si>
-  <si>
-    <t>/api/homepage/console/tips</t>
-  </si>
-  <si>
-    <t>lookup</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>state</t>
+    <t>checkStatus2</t>
+  </si>
+  <si>
+    <t>/api/back/level/logs</t>
+  </si>
+  <si>
+    <t>pageNum=1&amp;pageSize=8&amp;type=1</t>
+  </si>
+  <si>
+    <t>pageNum=2&amp;pageSize=8&amp;type=1</t>
+  </si>
+  <si>
+    <t>/api/back/level/save</t>
+  </si>
+  <si>
+    <t>{"orderList":[{"id":1,"markLower":85,"markUpper":100,"levelC":0,"logic":1,"denyCountLower":0,"denyCountUpper":0,"updatedBy":null,"updatedTime":null,"mlevel":100},{"id":2,"markLower":75,"markUpper":85,"levelC":0,"logic":0,"denyCountLower":0,"denyCountUpper":4,"updatedBy":null,"updatedTime":null,"mlevel":90},{"id":3,"markLower":0,"markUpper":75,"levelC":0,"logic":0,"denyCountLower":4,"denyCountUpper":1000,"updatedBy":null,"updatedTime":null,"mlevel":75}],"vesionRecord":{"id":1,"jsonData":null,"updateTime":"2020-03-23","effectiveTime":"2020-03-25","type":0,"number":7,"effectiveFlag":1,"adminPassword":null}}</t>
+  </si>
+  <si>
+    <t>/api/back/score/groups</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>pageNum=1&amp;pageSize=8</t>
+  </si>
+  <si>
+    <t>pageNum=2&amp;pageSize=8</t>
+  </si>
+  <si>
+    <t>/api/back/score/copy</t>
+  </si>
+  <si>
+    <t>{"groupId":25,"ruleName":"颐圣质控管理规则-56","remarks":""}</t>
+  </si>
+  <si>
+    <t>重复</t>
+  </si>
+  <si>
+    <t>{"groupId":25,"ruleName":"颐圣质控管理规则-57","remarks":""}</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>/api/back/score/delete</t>
+  </si>
+  <si>
+    <t>groupId=56</t>
+  </si>
+  <si>
+    <t>没有这个ID</t>
+  </si>
+  <si>
+    <t>groupId=1000</t>
+  </si>
+  <si>
+    <t>明日</t>
+  </si>
+  <si>
+    <t>/api/back/distribution/save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"number":7,"effectiveFlag":1,"ruleGroups":[{"departmentId":1,"groupId":20},{"departmentId":2,"groupId":25},{"departmentId":3,"groupId":12},{"departmentId":4,"groupId":12},{"departmentId":5,"groupId":12},{"departmentId":6,"groupId":12},{"departmentId":7,"groupId":12},{"departmentId":8,"groupId":12},{"departmentId":9,"groupId":14},{"departmentId":172,"groupId":1},{"departmentId":173,"groupId":1}],"mainDiagnoseRuleGroups":[{"id":12,"name":"脑梗死","groupId":23,"ruleGroupName":"888888","oldIndex":0}]}
+</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>规则组修改将于明日生效</t>
+  </si>
+  <si>
+    <t>传输错误</t>
+  </si>
+  <si>
+    <t>7天</t>
+  </si>
+  <si>
+    <t>{"number":7,"effectiveFlag":-1,"ruleGroups":[{"departmentId":1,"groupId":25},{"departmentId":2,"groupId":12},{"departmentId":3,"groupId":12},{"departmentId":4,"groupId":12},{"departmentId":5,"groupId":12},{"departmentId":6,"groupId":12},{"departmentId":7,"groupId":12},{"departmentId":8,"groupId":12},{"departmentId":9,"groupId":14},{"departmentId":10,"groupId":12},{"departmentId":11,"groupId":12},{"departmentId":12,"groupId":12},{"departmentId":13,"groupId":12},{"departmentId":14,"groupId":12},{"departmentId":15,"groupId":12},{"departmentId":16,"groupId":12},{"departmentId":17,"groupId":12},{"departmentId":18,"groupId":12},{"departmentId":19,"groupId":12},{"departmentId":20,"groupId":12},{"departmentId":23,"groupId":12},{"departmentId":25,"groupId":12},{"departmentId":26,"groupId":12},{"departmentId":27,"groupId":12},{"departmentId":28,"groupId":12},{"departmentId":30,"groupId":12},{"departmentId":31,"groupId":12},{"departmentId":32,"groupId":12},{"departmentId":34,"groupId":12},{"departmentId":35,"groupId":12},{"departmentId":38,"groupId":12},{"departmentId":39,"groupId":12},{"departmentId":42,"groupId":12},{"departmentId":44,"groupId":12},{"departmentId":45,"groupId":12},{"departmentId":46,"groupId":12},{"departmentId":50,"groupId":12},{"departmentId":51,"groupId":12},{"departmentId":55,"groupId":12},{"departmentId":56,"groupId":12},{"departmentId":60,"groupId":12},{"departmentId":62,"groupId":12},{"departmentId":65,"groupId":12},{"departmentId":67,"groupId":12},{"departmentId":68,"groupId":12},{"departmentId":70,"groupId":12},{"departmentId":71,"groupId":12},{"departmentId":73,"groupId":12},{"departmentId":74,"groupId":12},{"departmentId":77,"groupId":12},{"departmentId":79,"groupId":12},{"departmentId":82,"groupId":12},{"departmentId":83,"groupId":12},{"departmentId":84,"groupId":12},{"departmentId":86,"groupId":12},{"departmentId":88,"groupId":12},{"departmentId":89,"groupId":12},{"departmentId":90,"groupId":12},{"departmentId":95,"groupId":12},{"departmentId":100,"groupId":12},{"departmentId":101,"groupId":12},{"departmentId":103,"groupId":12},{"departmentId":105,"groupId":12},{"departmentId":106,"groupId":12},{"departmentId":107,"groupId":12},{"departmentId":108,"groupId":12},{"departmentId":109,"groupId":12},{"departmentId":110,"groupId":1},{"departmentId":111,"groupId":1},{"departmentId":112,"groupId":1},{"departmentId":113,"groupId":1},{"departmentId":114,"groupId":1},{"departmentId":115,"groupId":1},{"departmentId":116,"groupId":1},{"departmentId":117,"groupId":1},{"departmentId":118,"groupId":1},{"departmentId":119,"groupId":1},{"departmentId":120,"groupId":1},{"departmentId":121,"groupId":1},{"departmentId":122,"groupId":1},{"departmentId":123,"groupId":1},{"departmentId":124,"groupId":1},{"departmentId":125,"groupId":1},{"departmentId":126,"groupId":1},{"departmentId":127,"groupId":1},{"departmentId":128,"groupId":1},{"departmentId":129,"groupId":1},{"departmentId":130,"groupId":1},{"departmentId":131,"groupId":1},{"departmentId":132,"groupId":1},{"departmentId":133,"groupId":1},{"departmentId":134,"groupId":1},{"departmentId":135,"groupId":1},{"departmentId":136,"groupId":1},{"departmentId":137,"groupId":1},{"departmentId":138,"groupId":1},{"departmentId":139,"groupId":1},{"departmentId":140,"groupId":1},{"departmentId":141,"groupId":1},{"departmentId":142,"groupId":1},{"departmentId":143,"groupId":1},{"departmentId":144,"groupId":1},{"departmentId":145,"groupId":1},{"departmentId":146,"groupId":1},{"departmentId":147,"groupId":1},{"departmentId":148,"groupId":1},{"departmentId":149,"groupId":1},{"departmentId":150,"groupId":1},{"departmentId":151,"groupId":1},{"departmentId":152,"groupId":1},{"departmentId":153,"groupId":1},{"departmentId":154,"groupId":1},{"departmentId":155,"groupId":1},{"departmentId":156,"groupId":1},{"departmentId":157,"groupId":1},{"departmentId":158,"groupId":1},{"departmentId":159,"groupId":1},{"departmentId":160,"groupId":1},{"departmentId":161,"groupId":1},{"departmentId":162,"groupId":1},{"departmentId":163,"groupId":1},{"departmentId":164,"groupId":1},{"departmentId":165,"groupId":1},{"departmentId":166,"groupId":1},{"departmentId":167,"groupId":1},{"departmentId":168,"groupId":1},{"departmentId":169,"groupId":1},{"departmentId":170,"groupId":1},{"departmentId":171,"groupId":1},{"departmentId":172,"groupId":1},{"departmentId":173,"groupId":1}],"mainDiagnoseRuleGroups":[{"id":12,"name":"脑梗死","groupId":23,"ruleGroupName":"888888","oldIndex":0}]}</t>
+  </si>
+  <si>
+    <t>更新过于频繁,请10分钟后再操作.</t>
+  </si>
+  <si>
+    <t>无参数-成功</t>
+  </si>
+  <si>
+    <t>/api/back/itemLabel/listLabel</t>
+  </si>
+  <si>
+    <t>有参数-失败</t>
+  </si>
+  <si>
+    <t>/api/back/itemLabelAllot/save</t>
+  </si>
+  <si>
+    <t>[{"code":"A020010000","labelId":3}]</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>参数错误-失败</t>
+  </si>
+  <si>
+    <t>[{"code":"n020010000","labelId":3}]</t>
+  </si>
+  <si>
+    <t>表头-成功</t>
+  </si>
+  <si>
+    <t>/api/back/config/select</t>
+  </si>
+  <si>
+    <t>{"type": 1}</t>
+  </si>
+  <si>
+    <t>无参数-失败</t>
+  </si>
+  <si>
+    <t>筛选-成功</t>
+  </si>
+  <si>
+    <t>{"type": 2}</t>
+  </si>
+  <si>
+    <t>用户权限-成功</t>
+  </si>
+  <si>
+    <t>/api/back/auth/groups</t>
+  </si>
+  <si>
+    <t>用户权限-默认-成功</t>
+  </si>
+  <si>
+    <t>/api/userm/list</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":8,"name":"","orderBy":null,"desc":null}</t>
+  </si>
+  <si>
+    <t>用户权限-第二页-成功</t>
+  </si>
+  <si>
+    <t>{"pageNum":2,"pageSize":8,"name":"","orderBy":null,"desc":null}</t>
+  </si>
+  <si>
+    <t>用户权限-每页10条-成功</t>
+  </si>
+  <si>
+    <t>{"pageNum":2,"pageSize":10,"name":"","orderBy":null,"desc":null}</t>
+  </si>
+  <si>
+    <t>用户权限-筛选测试01-成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"pageNum":2,"pageSize":10,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01","orderBy":null,"desc":null}</t>
+    </r>
+  </si>
+  <si>
+    <t>用户权限-行政级别正序-成功</t>
+  </si>
+  <si>
+    <t>{"pageNum":2,"pageSize":10,"name":"","orderBy":2,"desc":1}</t>
+  </si>
+  <si>
+    <t>用户权限-行政级别倒序-成功</t>
+  </si>
+  <si>
+    <t>{"pageNum":2,"pageSize":10,"name":"","orderBy":2,"desc":2}</t>
+  </si>
+  <si>
+    <t>用户权限-职称别正序-成功</t>
+  </si>
+  <si>
+    <t>{"pageNum":2,"pageSize":10,"name":"","orderBy":3,"desc":1}</t>
+  </si>
+  <si>
+    <t>用户权限-职称别倒序-成功</t>
+  </si>
+  <si>
+    <t>{"pageNum":2,"pageSize":10,"name":"","orderBy":3,"desc":2}</t>
+  </si>
+  <si>
+    <t>用户权限-筛选测试01-行政级别正序-成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"pageNum":2,"pageSize":10,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01","orderBy":2,"desc":1}</t>
+    </r>
+  </si>
+  <si>
+    <t>用户权限-筛选测试01-行政级别倒序-成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"pageNum":2,"pageSize":10,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01","orderBy":2,"desc":2}</t>
+    </r>
+  </si>
+  <si>
+    <t>用户权限-筛选测试01-职称别正序-成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"pageNum":2,"pageSize":10,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01","orderBy":3,"desc":1}</t>
+    </r>
+  </si>
+  <si>
+    <t>用户权限-筛选测试01-职称别倒序-成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"pageNum":2,"pageSize":10,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01","orderBy":3,"desc":2}</t>
+    </r>
+  </si>
+  <si>
+    <t>用户权限-默认排序-成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"pageNum":2,"pageSize":10,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01","orderBy":1,"desc":1}</t>
+    </r>
+  </si>
+  <si>
+    <t>用户权限组-超级管理员</t>
+  </si>
+  <si>
+    <t>/api/back/auth/authDetail</t>
+  </si>
+  <si>
+    <t>{"groupId":1}</t>
+  </si>
+  <si>
+    <t>用户权限组-全局管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":2}</t>
+  </si>
+  <si>
+    <t>用户权限组-科室管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":3}</t>
+  </si>
+  <si>
+    <t>用户权限组-质控人员</t>
+  </si>
+  <si>
+    <t>用户权限组-科室医生</t>
+  </si>
+  <si>
+    <t>{"groupId":4}</t>
+  </si>
+  <si>
+    <t>用户权限组-门急诊质控员</t>
+  </si>
+  <si>
+    <t>{"groupId":5}</t>
+  </si>
+  <si>
+    <t>用户权限组-保存-超级管理员</t>
+  </si>
+  <si>
+    <t>/api/back/auth/modifyAuthDetail</t>
+  </si>
+  <si>
+    <t>{"groupId":1,"qualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":0,"medical":0,"appeal":0},"runQualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":1,"medical":0,"appeal":0},"visualization":0,"backManage":1,"manageModule":{"21":1,"22":1,"23":1,"24":1,"25":1},"oed":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":null,"review":null,"medical":0}}</t>
+  </si>
+  <si>
+    <t>用户权限组-保存-全局管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":2,"qualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":0,"medical":0,"appeal":0},"runQualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":1,"medical":0,"appeal":0},"visualization":0,"backManage":1,"manageModule":{"21":1,"22":1,"23":1,"24":1,"25":1},"oed":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":null,"review":null,"medical":1}}</t>
+  </si>
+  <si>
+    <t>用户权限组-保存-科室管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":3,"qualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":0,"medical":0,"appeal":0},"runQualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":1,"medical":0,"appeal":0},"visualization":0,"backManage":1,"manageModule":{"21":1,"22":1,"23":1,"24":1,"25":1},"oed":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":null,"review":null,"medical":2}}</t>
+  </si>
+  <si>
+    <t>用户权限组-保存-质控人员</t>
+  </si>
+  <si>
+    <t>{"groupId":4,"qualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":0,"medical":0,"appeal":0},"runQualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":1,"medical":0,"appeal":0},"visualization":0,"backManage":1,"manageModule":{"21":1,"22":1,"23":1,"24":1,"25":1},"oed":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":null,"review":null,"medical":3}}</t>
+  </si>
+  <si>
+    <t>用户权限组-保存-科室医生</t>
+  </si>
+  <si>
+    <t>{"groupId":5,"qualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":0,"medical":0,"appeal":0},"runQualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":1,"medical":0,"appeal":0},"visualization":0,"backManage":1,"manageModule":{"21":1,"22":1,"23":1,"24":1,"25":1},"oed":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":null,"review":null,"medical":4}}</t>
+  </si>
+  <si>
+    <t>用户权限组-保存-门急诊质控员</t>
+  </si>
+  <si>
+    <t>{"groupId":6,"qualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":0,"medical":0,"appeal":0},"runQualityControl":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":{"appealAuth":1,"reviewAuth":0},"review":1,"medical":0,"appeal":0},"visualization":0,"backManage":1,"manageModule":{"21":1,"22":1,"23":1,"24":1,"25":1},"oed":{"page":1,"medicalAuth":{"hospital":1,"department":0,"personal":0},"appealAuth":null,"review":null,"medical":5}}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-超级管理员</t>
+  </si>
+  <si>
+    <t>/api/back/auth/listPermissionLog</t>
+  </si>
+  <si>
+    <t>{"groupId":1,"pageNum":1,"pageSize":8,"times":[]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-保存-全局管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":2,"pageNum":1,"pageSize":8,"times":[]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-保存-科室管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":3,"pageNum":1,"pageSize":8,"times":[]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-保存-质控人员</t>
+  </si>
+  <si>
+    <t>{"groupId":4,"pageNum":1,"pageSize":8,"times":[]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-保存-科室医生</t>
+  </si>
+  <si>
+    <t>{"groupId":5,"pageNum":1,"pageSize":8,"times":[]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-保存-门急诊质控员</t>
+  </si>
+  <si>
+    <t>{"groupId":6,"pageNum":1,"pageSize":8,"times":[]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-时间-超级管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":1,"pageNum":1,"pageSize":8,"times":["2020-04-01","2020-04-13"]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-时间-全局管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":2,"pageNum":1,"pageSize":8,"times":["2020-04-01","2020-04-13"]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-时间-科室管理员</t>
+  </si>
+  <si>
+    <t>{"groupId":3,"pageNum":1,"pageSize":8,"times":["2020-04-01","2020-04-13"]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-时间-质控人员</t>
+  </si>
+  <si>
+    <t>{"groupId":4,"pageNum":1,"pageSize":8,"times":["2020-04-01","2020-04-13"]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-时间-科室医生</t>
+  </si>
+  <si>
+    <t>{"groupId":5,"pageNum":1,"pageSize":8,"times":["2020-04-01","2020-04-13"]}</t>
+  </si>
+  <si>
+    <t>用户权限组-历史-时间-门急诊质控员</t>
+  </si>
+  <si>
+    <t>{"groupId":6,"pageNum":1,"pageSize":8,"times":["2020-04-01","2020-04-13"]}</t>
   </si>
 </sst>
 </file>
@@ -93,11 +789,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +807,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,16 +858,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,24 +873,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,30 +905,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +936,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,18 +951,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -264,7 +976,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,25 +1078,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,97 +1132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,43 +1150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,47 +1167,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,10 +1194,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -551,6 +1254,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -561,10 +1273,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +1285,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,7 +1420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1060,7 +1772,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1133,24 +1845,1656 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="32.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="60.6666666666667" customWidth="1"/>
+    <col min="4" max="5" width="13.7777777777778" customWidth="1"/>
+    <col min="6" max="7" width="19.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="28.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="33.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="59.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="33.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="68" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="90" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="108" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="42.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="36.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="36.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="37.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="19.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="34.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="47.1111111111111" customWidth="1"/>
+    <col min="4" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="23.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="30.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="40.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="28.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="77.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="25.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.4907407407407" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="6" width="25.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="27.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="51.4444444444444" customWidth="1"/>
+    <col min="4" max="7" width="27.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="44.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="53.3333333333333" customWidth="1"/>
+    <col min="4" max="7" width="13.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="28.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="70.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1163,37 +3507,72 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1204,20 +3583,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="A1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="23.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="23.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="28.5555555555556" customWidth="1"/>
+    <col min="4" max="6" width="23.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1230,31 +3609,69 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3"/>
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1266,21 +3683,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="A1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="21.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="21.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="23.2222222222222" customWidth="1"/>
+    <col min="1" max="6" width="22.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,31 +3707,69 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3"/>
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1329,19 +3781,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="39.5555555555556" customWidth="1"/>
+    <col min="1" max="2" width="26.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="30.8888888888889" customWidth="1"/>
+    <col min="4" max="6" width="26.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1354,31 +3807,69 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3"/>
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1390,18 +3881,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="70.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
+    <col min="1" max="2" width="23.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" customWidth="1"/>
+    <col min="4" max="6" width="23.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1418,27 +3908,229 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="68" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="90" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="108" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="50.2222222222222" customWidth="1"/>
+    <col min="4" max="6" width="17.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="29.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="61.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="35.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1446,19 +4138,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1466,19 +4158,122 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="70.6666666666667" customWidth="1"/>
+    <col min="4" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/testFile/case/userCase01.xlsx
+++ b/testFile/case/userCase01.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yc/PycharmProjects/untitled/interfaceTest/testFile/case/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A93EB1-4FF0-4141-86D4-5848A9342ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="9420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>case_name</t>
   </si>
@@ -85,19 +91,29 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=tianlei@123.com&amp;password=qwe123..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=tianlei@123.com&amp;password=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,348 +124,33 @@
     <font>
       <sz val="9"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -457,314 +158,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1051,23 +468,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="15.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="69.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1084,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1127,26 +544,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="28.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1189,32 +605,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:4">
       <c r="B4" s="2"/>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="23.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1252,32 +667,29 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="D5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="21.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="21.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="23.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1315,30 +727,28 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="39.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1362,8 +772,8 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1376,32 +786,30 @@
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="70.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="7.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="70.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1424,7 +832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1451,8 +859,8 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1471,11 +879,11 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1485,7 +893,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>